--- a/documents/digital/表结构说明/oms_contract.xlsx
+++ b/documents/digital/表结构说明/oms_contract.xlsx
@@ -1,72 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1680" yWindow="920" windowWidth="22920" windowHeight="14040"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_contract" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_contract" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>contract_code</t>
+  </si>
+  <si>
+    <t>dealer_id</t>
+  </si>
+  <si>
+    <t>contract_startDate</t>
+  </si>
+  <si>
+    <t>contract_endDate</t>
+  </si>
+  <si>
+    <t>sap_contract_code</t>
+  </si>
+  <si>
+    <t>contract_status_code</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>Rem1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rem2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>contract_number</t>
-  </si>
-  <si>
-    <t>contract_code</t>
-  </si>
-  <si>
-    <t>dealer_id</t>
-  </si>
-  <si>
-    <t>contract_startDate</t>
-  </si>
-  <si>
-    <t>contract_endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contract_type_id</t>
-  </si>
-  <si>
-    <t>sap_contract_code</t>
-  </si>
-  <si>
-    <t>contract_status_code</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>is_del</t>
-  </si>
-  <si>
-    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,57 +151,403 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_contract.xlsx
+++ b/documents/digital/表结构说明/oms_contract.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="920" windowWidth="22920" windowHeight="14040"/>
+    <workbookView xWindow="1680" yWindow="915" windowWidth="22920" windowHeight="14040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oms_contract" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>contract_code</t>
-  </si>
-  <si>
-    <t>dealer_id</t>
-  </si>
-  <si>
-    <t>contract_startDate</t>
-  </si>
-  <si>
-    <t>contract_endDate</t>
-  </si>
-  <si>
-    <t>sap_contract_code</t>
-  </si>
-  <si>
     <t>contract_status_code</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
     <t>is_del</t>
   </si>
   <si>
@@ -76,23 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONBE003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CONBE011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONBE012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_type_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,19 +74,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CONBE023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_startDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBE012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_endDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CONBE076</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONBE023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sap_contract_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  CONBE_ID,CONBE003 AS contract_code,CONBE008 AS dealer_id,CONBE011 AS contract_startDate,CONBE012 AS contract_endDate,CONBE076 AS sap_contract_code,CONBE023 AS remark from TB_CONBE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -123,6 +134,18 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,12 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -166,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,111 +465,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -549,5 +578,96 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_contract.xlsx
+++ b/documents/digital/表结构说明/oms_contract.xlsx
@@ -118,7 +118,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT  CONBE_ID,CONBE003 AS contract_code,CONBE008 AS dealer_id,CONBE011 AS contract_startDate,CONBE012 AS contract_endDate,CONBE076 AS sap_contract_code,CONBE023 AS remark from TB_CONBE</t>
+    <t xml:space="preserve">SELECT 
+CONBE_ID id_uuid,
+--contract_number
+CONBE003 contract_code,
+--dealer_id
+CONBE008 dealer_id_uuid,
+CONBE011 contract_startDate,
+CONBE012 contract_endDate,
+CONBE007 contract_type_id,
+CONBE076 sap_contract_code,
+CONBE025 contract_status_code,
+CONBE023 remark
+from TB_CONBE
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -177,12 +190,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,15 +500,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -502,28 +517,28 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
@@ -537,7 +552,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -546,13 +561,13 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -596,72 +611,72 @@
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -669,5 +684,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_contract.xlsx
+++ b/documents/digital/表结构说明/oms_contract.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="915" windowWidth="22920" windowHeight="14040" activeTab="1"/>
+    <workbookView xWindow="1680" yWindow="920" windowWidth="22920" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="oms_contract" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -64,13 +64,6 @@
   </si>
   <si>
     <t>CONBE011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
-    <rPh sb="0" eb="1">
-      <t>wei'zhi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,6 +126,24 @@
 from TB_CONBE
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在tb_pubgm</t>
+    <rPh sb="0" eb="1">
+      <t>cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.招商待创建
+T.财务待复核
+Y.已完成(已生效)
+F.已完成(未生效)
+Z.终止
+S.商总待审批
+Q.商总已审批
+X.作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,15 +198,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,37 +495,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -518,28 +533,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -548,12 +563,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -562,30 +577,32 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -601,82 +618,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
